--- a/biology/Microbiologie/Clavibacter_michiganensis_subsp._sepedonicus/Clavibacter_michiganensis_subsp._sepedonicus.xlsx
+++ b/biology/Microbiologie/Clavibacter_michiganensis_subsp._sepedonicus/Clavibacter_michiganensis_subsp._sepedonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clavibacter sepedonicus est une espèce de bactéries de la famille des Microbacteriaceae, causant plusieurs maladies de la pomme de terre : la bactériose annulaire de la pomme de terre, le flétrissement bactérien de la pomme de terre et la pourriture annulaire de la pomme de terre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clavibacter sepedonicus est une espèce de bactéries de la famille des Microbacteriaceae, causant plusieurs maladies de la pomme de terre : la bactériose annulaire de la pomme de terre, le flétrissement bactérien de la pomme de terre et la pourriture annulaire de la pomme de terre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clavibacter sepedonicus est une bactérie gram positive non mobile dont les colonies sont de couleur blanche. Elles sont aérobies stricts et oxydase négatives. Elle ne liquéfie pas la gélatine et et elle est capable d'utiliser l'acétate[2]. La paroi cellulaire contient du fucose et du rhamnose[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clavibacter sepedonicus est une bactérie gram positive non mobile dont les colonies sont de couleur blanche. Elles sont aérobies stricts et oxydase négatives. Elle ne liquéfie pas la gélatine et et elle est capable d'utiliser l'acétate. La paroi cellulaire contient du fucose et du rhamnose.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Clavibacter sepedonicus (Spieckermann &amp; Kotthoff 1914) Li et al. 2018[3]. Cette classification est validée la même année que la publication[4]
-Synonymes
-Clavibacter sepedonicus a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Clavibacter sepedonicus (Spieckermann &amp; Kotthoff 1914) Li et al. 2018. Cette classification est validée la même année que la publication
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clavibacter_michiganensis_subsp._sepedonicus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavibacter_michiganensis_subsp._sepedonicus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Clavibacter sepedonicus a pour synonymes :
 Bacterium sepedonicum Spieckermann &amp; Kotthoff 1914
 Clavibacter sepedonicus (Spieckermann &amp; Kotthoff 1914) Nouioui et al. 2018
 Corynebacterium sepedonicum (Spieckermann &amp; Kotthoff 1914) Skaptason &amp; Burkholder 1942
@@ -554,9 +605,43 @@
 Clavibacter michiganense subsp. sepedonicus (Spieckermann &amp; Kotthoff 1914) Davis et al. 1984
 Clavibacter michiganensis subsp. sepedonicum (Spieckermann &amp; Kotthoff 1914) Davis et al. 1984
 Clavibacter michiganensis subsp. sepedonicus corrig. (Spieckermann &amp; Kotthoff 1914) Davis et al. 1984
-Corynebacterium michiganense subsp. sepedonicum (Spieckermann &amp; Kotthoff 1914) Carlson &amp; Vidaver 1982
-Étymologie
-L'étymologie du nom spécifique est la suivante : se.pe.do’ni.cus. Gr. fem. n. sêpedôn, pourriture; N.L. masc. adj. sepedonicus, entraînant vers la pourriture[3].
+Corynebacterium michiganense subsp. sepedonicum (Spieckermann &amp; Kotthoff 1914) Carlson &amp; Vidaver 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clavibacter_michiganensis_subsp._sepedonicus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavibacter_michiganensis_subsp._sepedonicus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique est la suivante : se.pe.do’ni.cus. Gr. fem. n. sêpedôn, pourriture; N.L. masc. adj. sepedonicus, entraînant vers la pourriture.
 </t>
         </is>
       </c>
